--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/8/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/8/FD_Curve.xlsx
@@ -499,10 +499,10 @@
         <v>0.120005</v>
       </c>
       <c r="B6" t="n">
-        <v>4.25507</v>
+        <v>4.256270000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>4255.07</v>
+        <v>4256.27</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.150013</v>
       </c>
       <c r="B7" t="n">
-        <v>5.09672</v>
+        <v>4.88641</v>
       </c>
       <c r="C7" t="n">
-        <v>5096.72</v>
+        <v>4886.41</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.179965</v>
       </c>
       <c r="B8" t="n">
-        <v>5.68511</v>
+        <v>5.36596</v>
       </c>
       <c r="C8" t="n">
-        <v>5685.11</v>
+        <v>5365.96</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.209917</v>
       </c>
       <c r="B9" t="n">
-        <v>6.23918</v>
+        <v>5.70563</v>
       </c>
       <c r="C9" t="n">
-        <v>6239.18</v>
+        <v>5705.63</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.23987</v>
       </c>
       <c r="B10" t="n">
-        <v>6.75137</v>
+        <v>6.03282</v>
       </c>
       <c r="C10" t="n">
-        <v>6751.37</v>
+        <v>6032.82</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.269786</v>
       </c>
       <c r="B11" t="n">
-        <v>7.09178</v>
+        <v>6.24308</v>
       </c>
       <c r="C11" t="n">
-        <v>7091.78</v>
+        <v>6243.08</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.299687</v>
       </c>
       <c r="B12" t="n">
-        <v>7.42348</v>
+        <v>6.443140000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>7423.48</v>
+        <v>6443.14</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.329584</v>
       </c>
       <c r="B13" t="n">
-        <v>7.637510000000001</v>
+        <v>6.61904</v>
       </c>
       <c r="C13" t="n">
-        <v>7637.51</v>
+        <v>6619.04</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.359485</v>
       </c>
       <c r="B14" t="n">
-        <v>7.849850000000001</v>
+        <v>6.76016</v>
       </c>
       <c r="C14" t="n">
-        <v>7849.85</v>
+        <v>6760.16</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.389386</v>
       </c>
       <c r="B15" t="n">
-        <v>8.035540000000001</v>
+        <v>6.89346</v>
       </c>
       <c r="C15" t="n">
-        <v>8035.54</v>
+        <v>6893.46</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.419287</v>
       </c>
       <c r="B16" t="n">
-        <v>8.189300000000001</v>
+        <v>7.02024</v>
       </c>
       <c r="C16" t="n">
-        <v>8189.3</v>
+        <v>7020.24</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.449188</v>
       </c>
       <c r="B17" t="n">
-        <v>8.332040000000001</v>
+        <v>7.11385</v>
       </c>
       <c r="C17" t="n">
-        <v>8332.040000000001</v>
+        <v>7113.85</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.479089</v>
       </c>
       <c r="B18" t="n">
-        <v>8.4711</v>
+        <v>7.22038</v>
       </c>
       <c r="C18" t="n">
-        <v>8471.1</v>
+        <v>7220.38</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.5089900000000001</v>
       </c>
       <c r="B19" t="n">
-        <v>8.57935</v>
+        <v>7.30128</v>
       </c>
       <c r="C19" t="n">
-        <v>8579.35</v>
+        <v>7301.28</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.538891</v>
       </c>
       <c r="B20" t="n">
-        <v>8.685420000000001</v>
+        <v>7.38204</v>
       </c>
       <c r="C20" t="n">
-        <v>8685.42</v>
+        <v>7382.04</v>
       </c>
     </row>
     <row r="21">
@@ -664,21 +664,21 @@
         <v>0.568792</v>
       </c>
       <c r="B21" t="n">
-        <v>8.780110000000001</v>
+        <v>7.46283</v>
       </c>
       <c r="C21" t="n">
-        <v>8780.110000000001</v>
+        <v>7462.83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.598807</v>
+        <v>0.5988059999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>8.87594</v>
+        <v>7.53526</v>
       </c>
       <c r="C22" t="n">
-        <v>8875.940000000001</v>
+        <v>7535.26</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0.628947</v>
       </c>
       <c r="B23" t="n">
-        <v>8.95088</v>
+        <v>7.60025</v>
       </c>
       <c r="C23" t="n">
-        <v>8950.879999999999</v>
+        <v>7600.25</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0.659091</v>
       </c>
       <c r="B24" t="n">
-        <v>9.03463</v>
+        <v>7.66162</v>
       </c>
       <c r="C24" t="n">
-        <v>9034.629999999999</v>
+        <v>7661.62</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0.689232</v>
       </c>
       <c r="B25" t="n">
-        <v>9.10948</v>
+        <v>7.71967</v>
       </c>
       <c r="C25" t="n">
-        <v>9109.48</v>
+        <v>7719.67</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.719372</v>
       </c>
       <c r="B26" t="n">
-        <v>9.175370000000001</v>
+        <v>7.77521</v>
       </c>
       <c r="C26" t="n">
-        <v>9175.370000000001</v>
+        <v>7775.21</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.749517</v>
       </c>
       <c r="B27" t="n">
-        <v>9.23598</v>
+        <v>7.82761</v>
       </c>
       <c r="C27" t="n">
-        <v>9235.98</v>
+        <v>7827.61</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.779657</v>
       </c>
       <c r="B28" t="n">
-        <v>9.295069999999999</v>
+        <v>7.87649</v>
       </c>
       <c r="C28" t="n">
-        <v>9295.07</v>
+        <v>7876.49</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0.809802</v>
       </c>
       <c r="B29" t="n">
-        <v>9.352219999999999</v>
+        <v>7.92123</v>
       </c>
       <c r="C29" t="n">
-        <v>9352.219999999999</v>
+        <v>7921.23</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0.839942</v>
       </c>
       <c r="B30" t="n">
-        <v>9.406090000000001</v>
+        <v>7.963439999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>9406.09</v>
+        <v>7963.44</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.8700830000000001</v>
       </c>
       <c r="B31" t="n">
-        <v>9.456629999999999</v>
+        <v>8.006260000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>9456.629999999999</v>
+        <v>8006.26</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0.900227</v>
       </c>
       <c r="B32" t="n">
-        <v>9.50455</v>
+        <v>8.048410000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>9504.549999999999</v>
+        <v>8048.41</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.930368</v>
       </c>
       <c r="B33" t="n">
-        <v>9.55059</v>
+        <v>8.08517</v>
       </c>
       <c r="C33" t="n">
-        <v>9550.59</v>
+        <v>8085.17</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0.960508</v>
       </c>
       <c r="B34" t="n">
-        <v>9.59498</v>
+        <v>8.12006</v>
       </c>
       <c r="C34" t="n">
-        <v>9594.98</v>
+        <v>8120.06</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0.990653</v>
       </c>
       <c r="B35" t="n">
-        <v>9.637090000000001</v>
+        <v>8.15691</v>
       </c>
       <c r="C35" t="n">
-        <v>9637.09</v>
+        <v>8156.91</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>1.02079</v>
       </c>
       <c r="B36" t="n">
-        <v>9.67544</v>
+        <v>8.188000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>9675.440000000001</v>
+        <v>8188</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>1.05093</v>
       </c>
       <c r="B37" t="n">
-        <v>9.71031</v>
+        <v>8.22021</v>
       </c>
       <c r="C37" t="n">
-        <v>9710.309999999999</v>
+        <v>8220.209999999999</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>1.08108</v>
       </c>
       <c r="B38" t="n">
-        <v>9.745010000000001</v>
+        <v>8.250489999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>9745.01</v>
+        <v>8250.49</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>1.11122</v>
       </c>
       <c r="B39" t="n">
-        <v>9.78046</v>
+        <v>8.278549999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>9780.459999999999</v>
+        <v>8278.549999999999</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>1.14136</v>
       </c>
       <c r="B40" t="n">
-        <v>9.811620000000001</v>
+        <v>8.30696</v>
       </c>
       <c r="C40" t="n">
-        <v>9811.620000000001</v>
+        <v>8306.959999999999</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>1.1715</v>
       </c>
       <c r="B41" t="n">
-        <v>9.840350000000001</v>
+        <v>8.33244</v>
       </c>
       <c r="C41" t="n">
-        <v>9840.35</v>
+        <v>8332.440000000001</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>1.20164</v>
       </c>
       <c r="B42" t="n">
-        <v>9.87082</v>
+        <v>8.358510000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>9870.82</v>
+        <v>8358.51</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>1.23179</v>
       </c>
       <c r="B43" t="n">
-        <v>9.897260000000001</v>
+        <v>8.382290000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>9897.26</v>
+        <v>8382.290000000001</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>1.26193</v>
       </c>
       <c r="B44" t="n">
-        <v>9.92328</v>
+        <v>8.4054</v>
       </c>
       <c r="C44" t="n">
-        <v>9923.280000000001</v>
+        <v>8405.4</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>1.29207</v>
       </c>
       <c r="B45" t="n">
-        <v>9.9489</v>
+        <v>8.428139999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>9948.9</v>
+        <v>8428.139999999999</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>1.32221</v>
       </c>
       <c r="B46" t="n">
-        <v>9.971489999999999</v>
+        <v>8.448560000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>9971.49</v>
+        <v>8448.559999999999</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>1.35235</v>
       </c>
       <c r="B47" t="n">
-        <v>9.99508</v>
+        <v>8.46973</v>
       </c>
       <c r="C47" t="n">
-        <v>9995.08</v>
+        <v>8469.73</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>1.38249</v>
       </c>
       <c r="B48" t="n">
-        <v>10.0155</v>
+        <v>8.48874</v>
       </c>
       <c r="C48" t="n">
-        <v>10015.5</v>
+        <v>8488.74</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>1.41264</v>
       </c>
       <c r="B49" t="n">
-        <v>10.0367</v>
+        <v>8.507160000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>10036.7</v>
+        <v>8507.16</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>1.44278</v>
       </c>
       <c r="B50" t="n">
-        <v>10.0552</v>
+        <v>8.52558</v>
       </c>
       <c r="C50" t="n">
-        <v>10055.2</v>
+        <v>8525.58</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>1.47292</v>
       </c>
       <c r="B51" t="n">
-        <v>10.0742</v>
+        <v>8.54227</v>
       </c>
       <c r="C51" t="n">
-        <v>10074.2</v>
+        <v>8542.27</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>1.50306</v>
       </c>
       <c r="B52" t="n">
-        <v>10.0911</v>
+        <v>8.558389999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>10091.1</v>
+        <v>8558.389999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>1.5332</v>
       </c>
       <c r="B53" t="n">
-        <v>10.1077</v>
+        <v>8.574389999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>10107.7</v>
+        <v>8574.389999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>1.56335</v>
       </c>
       <c r="B54" t="n">
-        <v>10.1234</v>
+        <v>8.589180000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>10123.4</v>
+        <v>8589.18</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>1.59349</v>
       </c>
       <c r="B55" t="n">
-        <v>10.1376</v>
+        <v>8.603070000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>10137.6</v>
+        <v>8603.07</v>
       </c>
     </row>
     <row r="56">
@@ -1049,516 +1049,516 @@
         <v>1.62363</v>
       </c>
       <c r="B56" t="n">
-        <v>10.1518</v>
+        <v>8.61669</v>
       </c>
       <c r="C56" t="n">
-        <v>10151.8</v>
+        <v>8616.690000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.65371</v>
+        <v>1.65377</v>
       </c>
       <c r="B57" t="n">
-        <v>10.1646</v>
+        <v>8.62973</v>
       </c>
       <c r="C57" t="n">
-        <v>10164.6</v>
+        <v>8629.73</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.68343</v>
+        <v>1.68392</v>
       </c>
       <c r="B58" t="n">
-        <v>10.1765</v>
+        <v>8.64184</v>
       </c>
       <c r="C58" t="n">
-        <v>10176.5</v>
+        <v>8641.84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.71316</v>
+        <v>1.71367</v>
       </c>
       <c r="B59" t="n">
-        <v>10.1881</v>
+        <v>8.65319</v>
       </c>
       <c r="C59" t="n">
-        <v>10188.1</v>
+        <v>8653.190000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.74289</v>
+        <v>1.74339</v>
       </c>
       <c r="B60" t="n">
-        <v>10.1985</v>
+        <v>8.66403</v>
       </c>
       <c r="C60" t="n">
-        <v>10198.5</v>
+        <v>8664.030000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.77262</v>
+        <v>1.77312</v>
       </c>
       <c r="B61" t="n">
-        <v>10.208</v>
+        <v>8.674440000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>10208</v>
+        <v>8674.440000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.80235</v>
+        <v>1.80285</v>
       </c>
       <c r="B62" t="n">
-        <v>10.2172</v>
+        <v>8.68422</v>
       </c>
       <c r="C62" t="n">
-        <v>10217.2</v>
+        <v>8684.219999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.83208</v>
+        <v>1.83258</v>
       </c>
       <c r="B63" t="n">
-        <v>10.2255</v>
+        <v>8.69333</v>
       </c>
       <c r="C63" t="n">
-        <v>10225.5</v>
+        <v>8693.33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.86181</v>
+        <v>1.86231</v>
       </c>
       <c r="B64" t="n">
-        <v>10.2329</v>
+        <v>8.701790000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>10232.9</v>
+        <v>8701.790000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.89177</v>
+        <v>1.89204</v>
       </c>
       <c r="B65" t="n">
-        <v>10.2397</v>
+        <v>8.709700000000002</v>
       </c>
       <c r="C65" t="n">
-        <v>10239.7</v>
+        <v>8709.700000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.92206</v>
+        <v>1.92177</v>
       </c>
       <c r="B66" t="n">
-        <v>10.246</v>
+        <v>8.71707</v>
       </c>
       <c r="C66" t="n">
-        <v>10246</v>
+        <v>8717.07</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.95235</v>
+        <v>1.95177</v>
       </c>
       <c r="B67" t="n">
-        <v>10.2516</v>
+        <v>8.724030000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>10251.6</v>
+        <v>8724.030000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.98265</v>
+        <v>1.98207</v>
       </c>
       <c r="B68" t="n">
-        <v>10.2563</v>
+        <v>8.730549999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>10256.3</v>
+        <v>8730.549999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.01284</v>
+        <v>2.01246</v>
       </c>
       <c r="B69" t="n">
-        <v>10.2602</v>
+        <v>8.736540000000002</v>
       </c>
       <c r="C69" t="n">
-        <v>10260.2</v>
+        <v>8736.540000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.0427</v>
+        <v>2.04307</v>
       </c>
       <c r="B70" t="n">
-        <v>10.2634</v>
+        <v>8.74189</v>
       </c>
       <c r="C70" t="n">
-        <v>10263.4</v>
+        <v>8741.889999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.07257</v>
+        <v>2.07294</v>
       </c>
       <c r="B71" t="n">
-        <v>10.2659</v>
+        <v>8.746690000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>10265.9</v>
+        <v>8746.690000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.10244</v>
+        <v>2.10281</v>
       </c>
       <c r="B72" t="n">
-        <v>10.2676</v>
+        <v>8.750909999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>10267.6</v>
+        <v>8750.91</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.1323</v>
+        <v>2.13267</v>
       </c>
       <c r="B73" t="n">
-        <v>10.2686</v>
+        <v>8.75454</v>
       </c>
       <c r="C73" t="n">
-        <v>10268.6</v>
+        <v>8754.540000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.16217</v>
+        <v>2.16254</v>
       </c>
       <c r="B74" t="n">
-        <v>10.2687</v>
+        <v>8.75764</v>
       </c>
       <c r="C74" t="n">
-        <v>10268.7</v>
+        <v>8757.639999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.19204</v>
+        <v>2.1924</v>
       </c>
       <c r="B75" t="n">
-        <v>10.2681</v>
+        <v>8.76014</v>
       </c>
       <c r="C75" t="n">
-        <v>10268.1</v>
+        <v>8760.139999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.22191</v>
+        <v>2.22227</v>
       </c>
       <c r="B76" t="n">
-        <v>10.2667</v>
+        <v>8.762090000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>10266.7</v>
+        <v>8762.09</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.25177</v>
+        <v>2.25214</v>
       </c>
       <c r="B77" t="n">
-        <v>10.2643</v>
+        <v>8.763479999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>10264.3</v>
+        <v>8763.48</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.28164</v>
+        <v>2.28201</v>
       </c>
       <c r="B78" t="n">
-        <v>10.2611</v>
+        <v>8.764290000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>10261.1</v>
+        <v>8764.290000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.31151</v>
+        <v>2.31188</v>
       </c>
       <c r="B79" t="n">
-        <v>10.2571</v>
+        <v>8.76449</v>
       </c>
       <c r="C79" t="n">
-        <v>10257.1</v>
+        <v>8764.49</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.34137</v>
+        <v>2.34174</v>
       </c>
       <c r="B80" t="n">
-        <v>10.2523</v>
+        <v>8.76408</v>
       </c>
       <c r="C80" t="n">
-        <v>10252.3</v>
+        <v>8764.08</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.37124</v>
+        <v>2.37161</v>
       </c>
       <c r="B81" t="n">
-        <v>10.2467</v>
+        <v>8.763110000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>10246.7</v>
+        <v>8763.110000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.40111</v>
+        <v>2.40107</v>
       </c>
       <c r="B82" t="n">
-        <v>10.2402</v>
+        <v>8.761469999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>10240.2</v>
+        <v>8761.469999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.43097</v>
+        <v>2.43009</v>
       </c>
       <c r="B83" t="n">
-        <v>10.2329</v>
+        <v>8.75916</v>
       </c>
       <c r="C83" t="n">
-        <v>10232.9</v>
+        <v>8759.16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.46084</v>
+        <v>2.4591</v>
       </c>
       <c r="B84" t="n">
-        <v>10.2248</v>
+        <v>8.756159999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>10224.8</v>
+        <v>8756.16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.4907</v>
+        <v>2.48811</v>
       </c>
       <c r="B85" t="n">
-        <v>10.2158</v>
+        <v>8.75253</v>
       </c>
       <c r="C85" t="n">
-        <v>10215.8</v>
+        <v>8752.530000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.52057</v>
+        <v>2.51713</v>
       </c>
       <c r="B86" t="n">
-        <v>10.2059</v>
+        <v>8.74827</v>
       </c>
       <c r="C86" t="n">
-        <v>10205.9</v>
+        <v>8748.27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.55044</v>
+        <v>2.54614</v>
       </c>
       <c r="B87" t="n">
-        <v>10.1952</v>
+        <v>8.743370000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>10195.2</v>
+        <v>8743.370000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.57977</v>
+        <v>2.57516</v>
       </c>
       <c r="B88" t="n">
-        <v>10.1835</v>
+        <v>8.73785</v>
       </c>
       <c r="C88" t="n">
-        <v>10183.5</v>
+        <v>8737.85</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.60879</v>
+        <v>2.60417</v>
       </c>
       <c r="B89" t="n">
-        <v>10.1709</v>
+        <v>8.73165</v>
       </c>
       <c r="C89" t="n">
-        <v>10170.9</v>
+        <v>8731.65</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.6378</v>
+        <v>2.63318</v>
       </c>
       <c r="B90" t="n">
-        <v>10.1571</v>
+        <v>8.72484</v>
       </c>
       <c r="C90" t="n">
-        <v>10157.1</v>
+        <v>8724.84</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.66681</v>
+        <v>2.6622</v>
       </c>
       <c r="B91" t="n">
-        <v>10.1415</v>
+        <v>8.71733</v>
       </c>
       <c r="C91" t="n">
-        <v>10141.5</v>
+        <v>8717.33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.69582</v>
+        <v>2.69121</v>
       </c>
       <c r="B92" t="n">
-        <v>10.1251</v>
+        <v>8.709149999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>10125.1</v>
+        <v>8709.15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.72484</v>
+        <v>2.72022</v>
       </c>
       <c r="B93" t="n">
-        <v>10.1077</v>
+        <v>8.70026</v>
       </c>
       <c r="C93" t="n">
-        <v>10107.7</v>
+        <v>8700.26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.75385</v>
+        <v>2.74924</v>
       </c>
       <c r="B94" t="n">
-        <v>10.0894</v>
+        <v>8.690629999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>10089.4</v>
+        <v>8690.629999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.78286</v>
+        <v>2.77825</v>
       </c>
       <c r="B95" t="n">
-        <v>10.0699</v>
+        <v>8.68031</v>
       </c>
       <c r="C95" t="n">
-        <v>10069.9</v>
+        <v>8680.309999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.81187</v>
+        <v>2.80726</v>
       </c>
       <c r="B96" t="n">
-        <v>10.0492</v>
+        <v>8.66926</v>
       </c>
       <c r="C96" t="n">
-        <v>10049.2</v>
+        <v>8669.26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.84089</v>
+        <v>2.83628</v>
       </c>
       <c r="B97" t="n">
-        <v>10.0272</v>
+        <v>8.657389999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>10027.2</v>
+        <v>8657.389999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.8699</v>
+        <v>2.86597</v>
       </c>
       <c r="B98" t="n">
-        <v>10.0037</v>
+        <v>8.64363</v>
       </c>
       <c r="C98" t="n">
-        <v>10003.7</v>
+        <v>8643.629999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.89892</v>
+        <v>2.89705</v>
       </c>
       <c r="B99" t="n">
-        <v>9.978590000000001</v>
+        <v>8.628299999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>9978.59</v>
+        <v>8628.299999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.92793</v>
+        <v>2.92814</v>
       </c>
       <c r="B100" t="n">
-        <v>9.951709999999999</v>
+        <v>8.61215</v>
       </c>
       <c r="C100" t="n">
-        <v>9951.709999999999</v>
+        <v>8612.15</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.95694</v>
+        <v>2.95922</v>
       </c>
       <c r="B101" t="n">
-        <v>9.92314</v>
+        <v>8.59511</v>
       </c>
       <c r="C101" t="n">
-        <v>9923.139999999999</v>
+        <v>8595.110000000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.98595</v>
+        <v>2.99031</v>
       </c>
       <c r="B102" t="n">
-        <v>9.892799999999999</v>
+        <v>8.576879999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>9892.799999999999</v>
+        <v>8576.879999999999</v>
       </c>
     </row>
   </sheetData>
